--- a/fML기초/99_과제/3_제주맛집_크롤링_지도/files/Instagram_Crawling/4_3_location_inform.xlsx
+++ b/fML기초/99_과제/3_제주맛집_크롤링_지도/files/Instagram_Crawling/4_3_location_inform.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>place</t>
   </si>
@@ -28,7 +28,235 @@
     <t>위도</t>
   </si>
   <si>
-    <t>한라산 사라오름</t>
+    <t>K현대미술관</t>
+  </si>
+  <si>
+    <t>MOG</t>
+  </si>
+  <si>
+    <t>ㅊa</t>
+  </si>
+  <si>
+    <t>거의끝집</t>
+  </si>
+  <si>
+    <t>구욱희씨</t>
+  </si>
+  <si>
+    <t>누메로도스</t>
+  </si>
+  <si>
+    <t>다르시</t>
+  </si>
+  <si>
+    <t>다포케</t>
+  </si>
+  <si>
+    <t>달리아스파 건대점</t>
+  </si>
+  <si>
+    <t>데어바타테</t>
+  </si>
+  <si>
+    <t>데일리오아시스 샤로수길점</t>
+  </si>
+  <si>
+    <t>뚝섬한강공원</t>
+  </si>
+  <si>
+    <t>레이더</t>
+  </si>
+  <si>
+    <t>린다비스타</t>
+  </si>
+  <si>
+    <t>마를리</t>
+  </si>
+  <si>
+    <t>망원동티라미수 연남동점</t>
+  </si>
+  <si>
+    <t>매드만조</t>
+  </si>
+  <si>
+    <t>메가박스 성수</t>
+  </si>
+  <si>
+    <t>바스버거 성수점</t>
+  </si>
+  <si>
+    <t>바위파스타바</t>
+  </si>
+  <si>
+    <t>밤가시마을</t>
+  </si>
+  <si>
+    <t>비에이치테이블</t>
+  </si>
+  <si>
+    <t>상하목장</t>
+  </si>
+  <si>
+    <t>서울숲</t>
+  </si>
+  <si>
+    <t>선데이사운즈</t>
+  </si>
+  <si>
+    <t>성수골목</t>
+  </si>
+  <si>
+    <t>성수다락</t>
+  </si>
+  <si>
+    <t>성수명당</t>
+  </si>
+  <si>
+    <t>성수미술관</t>
+  </si>
+  <si>
+    <t>성수빈티지</t>
+  </si>
+  <si>
+    <t>성수스타우트</t>
+  </si>
+  <si>
+    <t>성수연방</t>
+  </si>
+  <si>
+    <t>술있는식탁</t>
+  </si>
+  <si>
+    <t>시몬스 하드웨어 스토어</t>
+  </si>
+  <si>
+    <t>식물관PH</t>
+  </si>
+  <si>
+    <t>아르코커피</t>
+  </si>
+  <si>
+    <t>아모레성수</t>
+  </si>
+  <si>
+    <t>앤드밀</t>
+  </si>
+  <si>
+    <t>에머이 성수점</t>
+  </si>
+  <si>
+    <t>여음</t>
+  </si>
+  <si>
+    <t>영스데이</t>
+  </si>
+  <si>
+    <t>오거트</t>
+  </si>
+  <si>
+    <t>오늘와인한잔</t>
+  </si>
+  <si>
+    <t>오레노카츠</t>
+  </si>
+  <si>
+    <t>오브젝트 성수점</t>
+  </si>
+  <si>
+    <t>오키로북스 파크</t>
+  </si>
+  <si>
+    <t>오토데포</t>
+  </si>
+  <si>
+    <t>온량</t>
+  </si>
+  <si>
+    <t>온화 성수점</t>
+  </si>
+  <si>
+    <t>옹근달</t>
+  </si>
+  <si>
+    <t>외가집</t>
+  </si>
+  <si>
+    <t>우동가조쿠</t>
+  </si>
+  <si>
+    <t>우란문화재단</t>
+  </si>
+  <si>
+    <t>우정돈식당</t>
+  </si>
+  <si>
+    <t>유어네이키드치즈</t>
+  </si>
+  <si>
+    <t>유어네임히얼</t>
+  </si>
+  <si>
+    <t>이태리차차</t>
+  </si>
+  <si>
+    <t>잇샐러드</t>
+  </si>
+  <si>
+    <t>중앙감속기</t>
+  </si>
+  <si>
+    <t>천상가옥</t>
+  </si>
+  <si>
+    <t>카페라잌유</t>
+  </si>
+  <si>
+    <t>카페얀</t>
+  </si>
+  <si>
+    <t>크리커</t>
+  </si>
+  <si>
+    <t>키메네상점</t>
+  </si>
+  <si>
+    <t>탐광</t>
+  </si>
+  <si>
+    <t>토라식당</t>
+  </si>
+  <si>
+    <t>펍포레스트</t>
+  </si>
+  <si>
+    <t>포맨스</t>
+  </si>
+  <si>
+    <t>플디</t>
+  </si>
+  <si>
+    <t>피자시즌</t>
+  </si>
+  <si>
+    <t>필무드</t>
+  </si>
+  <si>
+    <t>핑거팁스</t>
+  </si>
+  <si>
+    <t>하루나</t>
+  </si>
+  <si>
+    <t>할아버지공장</t>
+  </si>
+  <si>
+    <t>헤이보울</t>
+  </si>
+  <si>
+    <t>홍화돈</t>
+  </si>
+  <si>
+    <t>화정다방</t>
   </si>
 </sst>
 </file>
@@ -386,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,12 +639,1076 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>126.570868431303</v>
+        <v>127.0391332375934</v>
       </c>
       <c r="C2" s="1">
-        <v>33.3718559201831</v>
+        <v>37.52434988316841</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>127.054733033656</v>
+      </c>
+      <c r="C3" s="1">
+        <v>37.54325235825021</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>127.124827032723</v>
+      </c>
+      <c r="C4" s="1">
+        <v>37.38563837108529</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>127.055639711221</v>
+      </c>
+      <c r="C5" s="1">
+        <v>37.5482326571023</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>127.041869477814</v>
+      </c>
+      <c r="C6" s="1">
+        <v>37.5471102922797</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>127.0473606920262</v>
+      </c>
+      <c r="C7" s="1">
+        <v>37.5463567844372</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>127.052883905212</v>
+      </c>
+      <c r="C8" s="1">
+        <v>37.5494088256076</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>127.0539113340042</v>
+      </c>
+      <c r="C9" s="1">
+        <v>37.54298153542346</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>127.069491970625</v>
+      </c>
+      <c r="C10" s="1">
+        <v>37.5397487166459</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>127.056750139664</v>
+      </c>
+      <c r="C11" s="1">
+        <v>37.5426639544529</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>126.956590757608</v>
+      </c>
+      <c r="C12" s="1">
+        <v>37.4781468803909</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>127.06892112991</v>
+      </c>
+      <c r="C13" s="1">
+        <v>37.5292974433415</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>127.05402042061</v>
+      </c>
+      <c r="C14" s="1">
+        <v>37.5436166901471</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>127.0619648491098</v>
+      </c>
+      <c r="C15" s="1">
+        <v>37.53925375225815</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>127.054745135469</v>
+      </c>
+      <c r="C16" s="1">
+        <v>37.5427802289338</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>126.925066022734</v>
+      </c>
+      <c r="C17" s="1">
+        <v>37.5596069959436</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>126.925643944099</v>
+      </c>
+      <c r="C18" s="1">
+        <v>37.56117509556179</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>127.0449081053142</v>
+      </c>
+      <c r="C19" s="1">
+        <v>37.54188698409931</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>127.046295736709</v>
+      </c>
+      <c r="C20" s="1">
+        <v>37.54615718499679</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>127.061566457128</v>
+      </c>
+      <c r="C21" s="1">
+        <v>37.539122414633</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>126.777804321309</v>
+      </c>
+      <c r="C22" s="1">
+        <v>37.67431189103571</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
+        <v>127.0807821702465</v>
+      </c>
+      <c r="C23" s="1">
+        <v>37.53777374907963</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1">
+        <v>126.451429013871</v>
+      </c>
+      <c r="C24" s="1">
+        <v>35.4431619973327</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1">
+        <v>127.037617759165</v>
+      </c>
+      <c r="C25" s="1">
+        <v>37.54432223015129</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1">
+        <v>126.981550187644</v>
+      </c>
+      <c r="C26" s="1">
+        <v>37.5474478415719</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1">
+        <v>127.043474671705</v>
+      </c>
+      <c r="C27" s="1">
+        <v>37.5461510493398</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1">
+        <v>127.056230968905</v>
+      </c>
+      <c r="C28" s="1">
+        <v>37.53992516373521</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1">
+        <v>127.062713160133</v>
+      </c>
+      <c r="C29" s="1">
+        <v>37.5410787829105</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1">
+        <v>127.054795978487</v>
+      </c>
+      <c r="C30" s="1">
+        <v>37.5457679188565</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1">
+        <v>127.043267571492</v>
+      </c>
+      <c r="C31" s="1">
+        <v>37.5461186894426</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1">
+        <v>127.044345393817</v>
+      </c>
+      <c r="C32" s="1">
+        <v>37.5470409124964</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1">
+        <v>127.0569585107954</v>
+      </c>
+      <c r="C33" s="1">
+        <v>37.54139704871741</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1">
+        <v>127.046377463688</v>
+      </c>
+      <c r="C34" s="1">
+        <v>37.54656440445579</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1">
+        <v>127.446272733685</v>
+      </c>
+      <c r="C35" s="1">
+        <v>37.197717225677</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1">
+        <v>127.094331083333</v>
+      </c>
+      <c r="C36" s="1">
+        <v>37.4826366596631</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1">
+        <v>127.053429525035</v>
+      </c>
+      <c r="C37" s="1">
+        <v>37.5448882689356</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1">
+        <v>127.059040730967</v>
+      </c>
+      <c r="C38" s="1">
+        <v>37.5445477220243</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1">
+        <v>127.046934375299</v>
+      </c>
+      <c r="C39" s="1">
+        <v>37.5468272760925</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="1">
+        <v>127.057215094612</v>
+      </c>
+      <c r="C40" s="1">
+        <v>37.54548385779898</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1">
+        <v>127.043281442315</v>
+      </c>
+      <c r="C41" s="1">
+        <v>37.5466232437808</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1">
+        <v>127.054202561957</v>
+      </c>
+      <c r="C42" s="1">
+        <v>37.5388737441929</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="1">
+        <v>127.04945208737</v>
+      </c>
+      <c r="C43" s="1">
+        <v>37.5483813723846</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1">
+        <v>127.1095492530017</v>
+      </c>
+      <c r="C44" s="1">
+        <v>37.32114981083247</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="1">
+        <v>127.049517573532</v>
+      </c>
+      <c r="C45" s="1">
+        <v>37.5447359033199</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="1">
+        <v>127.0413176692307</v>
+      </c>
+      <c r="C46" s="1">
+        <v>37.54786372164993</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="1">
+        <v>127.042453959446</v>
+      </c>
+      <c r="C47" s="1">
+        <v>37.54811920221989</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1">
+        <v>127.048942700007</v>
+      </c>
+      <c r="C48" s="1">
+        <v>37.5446820830368</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="1">
+        <v>127.043440031512</v>
+      </c>
+      <c r="C49" s="1">
+        <v>37.5469079011998</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="1">
+        <v>127.0526094286952</v>
+      </c>
+      <c r="C50" s="1">
+        <v>37.54530760175276</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="1">
+        <v>127.0529900659983</v>
+      </c>
+      <c r="C51" s="1">
+        <v>37.54271255358584</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="1">
+        <v>127.0514914829854</v>
+      </c>
+      <c r="C52" s="1">
+        <v>37.54374305888836</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="1">
+        <v>127.042884423889</v>
+      </c>
+      <c r="C53" s="1">
+        <v>37.5568010637512</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="1">
+        <v>127.0542807852132</v>
+      </c>
+      <c r="C54" s="1">
+        <v>37.54376433464276</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="1">
+        <v>127.055929146035</v>
+      </c>
+      <c r="C55" s="1">
+        <v>37.54182461456971</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="1">
+        <v>127.0476158322606</v>
+      </c>
+      <c r="C56" s="1">
+        <v>37.54185438832985</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="1">
+        <v>127.040022689001</v>
+      </c>
+      <c r="C57" s="1">
+        <v>37.54710012068779</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="1">
+        <v>127.051055679631</v>
+      </c>
+      <c r="C58" s="1">
+        <v>37.5435170972785</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="1">
+        <v>127.0535524200896</v>
+      </c>
+      <c r="C59" s="1">
+        <v>37.54584597529271</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="1">
+        <v>127.051084241076</v>
+      </c>
+      <c r="C60" s="1">
+        <v>37.5455749671444</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="1">
+        <v>127.056906467695</v>
+      </c>
+      <c r="C61" s="1">
+        <v>37.54140608380521</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="1">
+        <v>127.04717376638</v>
+      </c>
+      <c r="C62" s="1">
+        <v>37.54601988564229</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="1">
+        <v>129.203939529128</v>
+      </c>
+      <c r="C63" s="1">
+        <v>35.8557954231181</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="1">
+        <v>127.444635202367</v>
+      </c>
+      <c r="C64" s="1">
+        <v>37.2825534526709</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="1">
+        <v>127.068109110495</v>
+      </c>
+      <c r="C65" s="1">
+        <v>37.5457790104378</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="1">
+        <v>127.055411902856</v>
+      </c>
+      <c r="C66" s="1">
+        <v>37.5431709516945</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="1">
+        <v>127.049378097819</v>
+      </c>
+      <c r="C67" s="1">
+        <v>37.54600817245421</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="1">
+        <v>127.051982919805</v>
+      </c>
+      <c r="C68" s="1">
+        <v>37.5426048812973</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="1">
+        <v>127.0433824115987</v>
+      </c>
+      <c r="C69" s="1">
+        <v>37.54706649818458</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="1">
+        <v>127.048519334096</v>
+      </c>
+      <c r="C70" s="1">
+        <v>37.5479294580028</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="1">
+        <v>127.0569064649556</v>
+      </c>
+      <c r="C71" s="1">
+        <v>37.54140247980784</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="1">
+        <v>126.912003129783</v>
+      </c>
+      <c r="C72" s="1">
+        <v>37.7763125400684</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="1">
+        <v>127.055110893987</v>
+      </c>
+      <c r="C73" s="1">
+        <v>37.5431476665748</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="1">
+        <v>127.0529851285658</v>
+      </c>
+      <c r="C74" s="1">
+        <v>37.54213141109953</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="1">
+        <v>127.054835558322</v>
+      </c>
+      <c r="C75" s="1">
+        <v>37.5410980207173</v>
+      </c>
+      <c r="D75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="1">
+        <v>127.0550824880093</v>
+      </c>
+      <c r="C76" s="1">
+        <v>37.54145019667919</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" s="1">
+        <v>127.046350559703</v>
+      </c>
+      <c r="C77" s="1">
+        <v>37.5469752705161</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="1">
+        <v>126.832460453281</v>
+      </c>
+      <c r="C78" s="1">
+        <v>37.6392963646861</v>
+      </c>
+      <c r="D78">
         <v>1</v>
       </c>
     </row>
